--- a/Survey Results/female_sample.xlsx
+++ b/Survey Results/female_sample.xlsx
@@ -14,6 +14,9 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$E$1:$E$53</definedName>
+  </definedNames>
   <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -24,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="556" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="550" uniqueCount="123">
   <si>
     <t>Timestamp</t>
   </si>
@@ -38,9 +41,6 @@
     <t>Have you done an online purchase during last 6 months?</t>
   </si>
   <si>
-    <t>If yes, how many different items have you purchased within those 6 months?</t>
-  </si>
-  <si>
     <t>Choose the type of the product you have purchased most frequently.</t>
   </si>
   <si>
@@ -158,9 +158,6 @@
     <t>2018/06/12 3:07:58 PM GMT+5:30</t>
   </si>
   <si>
-    <t>One item</t>
-  </si>
-  <si>
     <t>2018/06/12 3:08:43 PM GMT+5:30</t>
   </si>
   <si>
@@ -215,9 +212,6 @@
     <t>2018/06/13 2:51:05 PM GMT+5:30</t>
   </si>
   <si>
-    <t>About 10</t>
-  </si>
-  <si>
     <t>Wearables (dresses, watches, shoes etc.);Bags, Jewellery or any other fashion accessories;Electronic Devices/Computer Equipments</t>
   </si>
   <si>
@@ -269,18 +263,12 @@
     <t>2018/06/14 10:31:27 AM GMT+5:30</t>
   </si>
   <si>
-    <t>Only ordered one item. Usually I check the reliability of the seller and closely check the images. With the experience I can predict little bit about the product when checking several images.</t>
-  </si>
-  <si>
     <t>2018/06/14 10:48:33 AM GMT+5:30</t>
   </si>
   <si>
     <t>2018/06/14 11:19:11 AM GMT+5:30</t>
   </si>
   <si>
-    <t xml:space="preserve">only a hand bag </t>
-  </si>
-  <si>
     <t>2018/06/14 11:31:20 AM GMT+5:30</t>
   </si>
   <si>
@@ -308,9 +296,6 @@
     <t>2018/06/15 11:02:47 AM GMT+5:30</t>
   </si>
   <si>
-    <t>clothing</t>
-  </si>
-  <si>
     <t>Wearables (dresses, watches, shoes etc.);Bags, Jewellery or any other fashion accessories</t>
   </si>
   <si>
@@ -398,9 +383,6 @@
     <t>2018/06/25 2:42:58 PM GMT+5:30</t>
   </si>
   <si>
-    <t xml:space="preserve">More than 5 types </t>
-  </si>
-  <si>
     <t>Bags, Jewellery or any other fashion accessories;Health and Beauty Products;Homeware</t>
   </si>
   <si>
@@ -411,6 +393,9 @@
   </si>
   <si>
     <t>2018/06/26 10:58:19 AM GMT+5:30</t>
+  </si>
+  <si>
+    <t>ItemsPurchased</t>
   </si>
 </sst>
 </file>
@@ -765,7 +750,7 @@
   <dimension ref="A1:N53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P13" sqref="P13"/>
+      <selection activeCell="S12" sqref="S12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -784,72 +769,75 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>4</v>
+        <v>122</v>
       </c>
       <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>12</v>
-      </c>
-      <c r="N1" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2" t="s">
         <v>17</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>18</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>19</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>20</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K2" t="s">
         <v>21</v>
       </c>
-      <c r="J2" t="s">
-        <v>17</v>
-      </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>22</v>
       </c>
-      <c r="L2" t="s">
-        <v>23</v>
-      </c>
       <c r="M2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N2">
         <v>4</v>
@@ -857,43 +845,43 @@
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I3" t="s">
         <v>27</v>
       </c>
-      <c r="H3" t="s">
-        <v>20</v>
-      </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
+        <v>15</v>
+      </c>
+      <c r="K3" t="s">
+        <v>21</v>
+      </c>
+      <c r="L3" t="s">
         <v>28</v>
       </c>
-      <c r="J3" t="s">
-        <v>16</v>
-      </c>
-      <c r="K3" t="s">
-        <v>22</v>
-      </c>
-      <c r="L3" t="s">
-        <v>29</v>
-      </c>
       <c r="M3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N3">
         <v>4</v>
@@ -901,40 +889,43 @@
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H4" t="s">
+        <v>19</v>
+      </c>
+      <c r="I4" t="s">
+        <v>20</v>
+      </c>
+      <c r="J4" t="s">
+        <v>15</v>
+      </c>
+      <c r="K4" t="s">
+        <v>26</v>
+      </c>
+      <c r="L4" t="s">
         <v>30</v>
       </c>
-      <c r="B4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F4" t="s">
-        <v>26</v>
-      </c>
-      <c r="G4" t="s">
-        <v>19</v>
-      </c>
-      <c r="H4" t="s">
-        <v>20</v>
-      </c>
-      <c r="I4" t="s">
-        <v>21</v>
-      </c>
-      <c r="J4" t="s">
-        <v>16</v>
-      </c>
-      <c r="K4" t="s">
-        <v>27</v>
-      </c>
-      <c r="L4" t="s">
+      <c r="M4" t="s">
         <v>31</v>
-      </c>
-      <c r="M4" t="s">
-        <v>32</v>
       </c>
       <c r="N4">
         <v>3</v>
@@ -942,43 +933,43 @@
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5">
+        <v>4</v>
+      </c>
+      <c r="F5" t="s">
         <v>33</v>
       </c>
-      <c r="B5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E5">
-        <v>4</v>
-      </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>34</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
         <v>35</v>
       </c>
-      <c r="H5" t="s">
+      <c r="I5" t="s">
+        <v>35</v>
+      </c>
+      <c r="J5" t="s">
+        <v>15</v>
+      </c>
+      <c r="K5" t="s">
         <v>36</v>
       </c>
-      <c r="I5" t="s">
-        <v>36</v>
-      </c>
-      <c r="J5" t="s">
-        <v>16</v>
-      </c>
-      <c r="K5" t="s">
+      <c r="L5" t="s">
         <v>37</v>
       </c>
-      <c r="L5" t="s">
-        <v>38</v>
-      </c>
       <c r="M5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N5">
         <v>3</v>
@@ -986,40 +977,43 @@
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6" t="s">
         <v>17</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>18</v>
       </c>
-      <c r="G6" t="s">
+      <c r="H6" t="s">
         <v>19</v>
       </c>
-      <c r="H6" t="s">
-        <v>20</v>
-      </c>
       <c r="I6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N6">
         <v>4</v>
@@ -1027,43 +1021,43 @@
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E7">
         <v>5</v>
       </c>
       <c r="F7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H7" t="s">
+        <v>19</v>
+      </c>
+      <c r="I7" t="s">
         <v>41</v>
       </c>
-      <c r="G7" t="s">
-        <v>27</v>
-      </c>
-      <c r="H7" t="s">
-        <v>20</v>
-      </c>
-      <c r="I7" t="s">
-        <v>42</v>
-      </c>
       <c r="J7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="L7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N7">
         <v>4</v>
@@ -1071,43 +1065,43 @@
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D8" t="s">
-        <v>16</v>
-      </c>
-      <c r="E8" t="s">
-        <v>44</v>
+        <v>15</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
       </c>
       <c r="F8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G8" t="s">
+        <v>18</v>
+      </c>
+      <c r="H8" t="s">
         <v>19</v>
       </c>
-      <c r="H8" t="s">
+      <c r="I8" t="s">
         <v>20</v>
       </c>
-      <c r="I8" t="s">
-        <v>21</v>
-      </c>
       <c r="J8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="M8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N8">
         <v>4</v>
@@ -1115,43 +1109,43 @@
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E9">
         <v>10</v>
       </c>
       <c r="F9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I9" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="L9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="M9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N9">
         <v>4</v>
@@ -1159,43 +1153,43 @@
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E10">
         <v>2</v>
       </c>
       <c r="F10" t="s">
+        <v>46</v>
+      </c>
+      <c r="G10" t="s">
+        <v>26</v>
+      </c>
+      <c r="H10" t="s">
+        <v>19</v>
+      </c>
+      <c r="I10" t="s">
+        <v>47</v>
+      </c>
+      <c r="J10" t="s">
+        <v>15</v>
+      </c>
+      <c r="K10" t="s">
+        <v>21</v>
+      </c>
+      <c r="L10" t="s">
+        <v>30</v>
+      </c>
+      <c r="M10" t="s">
         <v>48</v>
-      </c>
-      <c r="G10" t="s">
-        <v>27</v>
-      </c>
-      <c r="H10" t="s">
-        <v>20</v>
-      </c>
-      <c r="I10" t="s">
-        <v>49</v>
-      </c>
-      <c r="J10" t="s">
-        <v>16</v>
-      </c>
-      <c r="K10" t="s">
-        <v>22</v>
-      </c>
-      <c r="L10" t="s">
-        <v>31</v>
-      </c>
-      <c r="M10" t="s">
-        <v>50</v>
       </c>
       <c r="N10">
         <v>4</v>
@@ -1203,40 +1197,43 @@
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D11" t="s">
-        <v>17</v>
+        <v>16</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
       </c>
       <c r="F11" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H11" t="s">
         <v>19</v>
       </c>
-      <c r="H11" t="s">
+      <c r="I11" t="s">
         <v>20</v>
       </c>
-      <c r="I11" t="s">
+      <c r="J11" t="s">
+        <v>16</v>
+      </c>
+      <c r="K11" t="s">
         <v>21</v>
       </c>
-      <c r="J11" t="s">
-        <v>17</v>
-      </c>
-      <c r="K11" t="s">
+      <c r="L11" t="s">
         <v>22</v>
       </c>
-      <c r="L11" t="s">
-        <v>23</v>
-      </c>
       <c r="M11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N11">
         <v>4</v>
@@ -1244,43 +1241,43 @@
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E12">
         <v>1</v>
       </c>
       <c r="F12" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H12" t="s">
+        <v>20</v>
+      </c>
+      <c r="I12" t="s">
+        <v>53</v>
+      </c>
+      <c r="J12" t="s">
+        <v>16</v>
+      </c>
+      <c r="K12" t="s">
         <v>21</v>
       </c>
-      <c r="I12" t="s">
-        <v>55</v>
-      </c>
-      <c r="J12" t="s">
-        <v>17</v>
-      </c>
-      <c r="K12" t="s">
+      <c r="L12" t="s">
         <v>22</v>
       </c>
-      <c r="L12" t="s">
-        <v>23</v>
-      </c>
       <c r="M12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N12">
         <v>3</v>
@@ -1288,57 +1285,60 @@
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D13" t="s">
-        <v>17</v>
+        <v>16</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E14">
         <v>8</v>
       </c>
       <c r="F14" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I14" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="J14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="L14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M14" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N14">
         <v>4</v>
@@ -1346,43 +1346,43 @@
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E15">
         <v>2</v>
       </c>
       <c r="F15" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G15" t="s">
+        <v>18</v>
+      </c>
+      <c r="H15" t="s">
         <v>19</v>
       </c>
-      <c r="H15" t="s">
+      <c r="I15" t="s">
         <v>20</v>
       </c>
-      <c r="I15" t="s">
+      <c r="J15" t="s">
+        <v>16</v>
+      </c>
+      <c r="K15" t="s">
         <v>21</v>
       </c>
-      <c r="J15" t="s">
-        <v>17</v>
-      </c>
-      <c r="K15" t="s">
-        <v>22</v>
-      </c>
       <c r="L15" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="M15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N15">
         <v>3</v>
@@ -1390,43 +1390,43 @@
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
+        <v>60</v>
+      </c>
+      <c r="B16" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" t="s">
+        <v>15</v>
+      </c>
+      <c r="D16" t="s">
+        <v>15</v>
+      </c>
+      <c r="E16">
+        <v>10</v>
+      </c>
+      <c r="F16" t="s">
+        <v>61</v>
+      </c>
+      <c r="G16" t="s">
+        <v>26</v>
+      </c>
+      <c r="H16" t="s">
         <v>62</v>
       </c>
-      <c r="B16" t="s">
-        <v>15</v>
-      </c>
-      <c r="C16" t="s">
-        <v>16</v>
-      </c>
-      <c r="D16" t="s">
-        <v>16</v>
-      </c>
-      <c r="E16" t="s">
-        <v>63</v>
-      </c>
-      <c r="F16" t="s">
-        <v>64</v>
-      </c>
-      <c r="G16" t="s">
-        <v>27</v>
-      </c>
-      <c r="H16" t="s">
-        <v>65</v>
-      </c>
       <c r="I16" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="J16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="L16" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="M16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N16">
         <v>4</v>
@@ -1434,43 +1434,43 @@
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B17" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C17" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D17" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E17">
         <v>7</v>
       </c>
       <c r="F17" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G17" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H17" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I17" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="J17" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K17" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="L17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N17">
         <v>4</v>
@@ -1478,43 +1478,43 @@
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B18" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C18" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D18" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E18">
         <v>3</v>
       </c>
       <c r="F18" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="G18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H18" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I18" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="J18" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="L18" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="M18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N18">
         <v>4</v>
@@ -1522,43 +1522,43 @@
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B19" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C19" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D19" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E19">
         <v>2</v>
       </c>
       <c r="F19" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="G19" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H19" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I19" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J19" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K19" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="L19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N19">
         <v>4</v>
@@ -1566,71 +1566,77 @@
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B20" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C20" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D20" t="s">
-        <v>17</v>
+        <v>16</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B21" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C21" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D21" t="s">
-        <v>17</v>
+        <v>16</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B22" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C22" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D22" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E22">
         <v>2</v>
       </c>
       <c r="F22" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="G22" t="s">
+        <v>26</v>
+      </c>
+      <c r="H22" t="s">
+        <v>19</v>
+      </c>
+      <c r="I22" t="s">
         <v>27</v>
       </c>
-      <c r="H22" t="s">
-        <v>20</v>
-      </c>
-      <c r="I22" t="s">
+      <c r="J22" t="s">
+        <v>15</v>
+      </c>
+      <c r="K22" t="s">
+        <v>26</v>
+      </c>
+      <c r="L22" t="s">
         <v>28</v>
       </c>
-      <c r="J22" t="s">
-        <v>16</v>
-      </c>
-      <c r="K22" t="s">
-        <v>27</v>
-      </c>
-      <c r="L22" t="s">
-        <v>29</v>
-      </c>
       <c r="M22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N22">
         <v>4</v>
@@ -1638,40 +1644,43 @@
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B23" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C23" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D23" t="s">
-        <v>17</v>
+        <v>16</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
       </c>
       <c r="F23" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="G23" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H23" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="I23" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="J23" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K23" t="s">
+        <v>21</v>
+      </c>
+      <c r="L23" t="s">
         <v>22</v>
       </c>
-      <c r="L23" t="s">
-        <v>23</v>
-      </c>
       <c r="M23" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N23">
         <v>3</v>
@@ -1679,40 +1688,43 @@
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B24" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C24" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D24" t="s">
-        <v>17</v>
+        <v>16</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
       </c>
       <c r="F24" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="G24" t="s">
+        <v>26</v>
+      </c>
+      <c r="H24" t="s">
+        <v>19</v>
+      </c>
+      <c r="I24" t="s">
         <v>27</v>
       </c>
-      <c r="H24" t="s">
-        <v>20</v>
-      </c>
-      <c r="I24" t="s">
-        <v>28</v>
-      </c>
       <c r="J24" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K24" t="s">
+        <v>21</v>
+      </c>
+      <c r="L24" t="s">
         <v>22</v>
       </c>
-      <c r="L24" t="s">
-        <v>23</v>
-      </c>
       <c r="M24" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N24">
         <v>3</v>
@@ -1720,43 +1732,43 @@
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B25" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C25" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D25" t="s">
-        <v>16</v>
-      </c>
-      <c r="E25" t="s">
-        <v>81</v>
+        <v>15</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
       </c>
       <c r="F25" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="G25" t="s">
+        <v>18</v>
+      </c>
+      <c r="H25" t="s">
         <v>19</v>
       </c>
-      <c r="H25" t="s">
-        <v>20</v>
-      </c>
       <c r="I25" t="s">
+        <v>27</v>
+      </c>
+      <c r="J25" t="s">
+        <v>16</v>
+      </c>
+      <c r="K25" t="s">
+        <v>21</v>
+      </c>
+      <c r="L25" t="s">
         <v>28</v>
       </c>
-      <c r="J25" t="s">
-        <v>17</v>
-      </c>
-      <c r="K25" t="s">
-        <v>22</v>
-      </c>
-      <c r="L25" t="s">
-        <v>29</v>
-      </c>
       <c r="M25" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N25">
         <v>5</v>
@@ -1764,57 +1776,60 @@
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B26" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C26" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D26" t="s">
-        <v>17</v>
+        <v>16</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="B27" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C27" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D27" t="s">
-        <v>16</v>
-      </c>
-      <c r="E27" t="s">
-        <v>84</v>
+        <v>15</v>
+      </c>
+      <c r="E27">
+        <v>1</v>
       </c>
       <c r="F27" t="s">
+        <v>17</v>
+      </c>
+      <c r="G27" t="s">
         <v>18</v>
       </c>
-      <c r="G27" t="s">
+      <c r="H27" t="s">
         <v>19</v>
       </c>
-      <c r="H27" t="s">
+      <c r="I27" t="s">
         <v>20</v>
       </c>
-      <c r="I27" t="s">
+      <c r="J27" t="s">
+        <v>15</v>
+      </c>
+      <c r="K27" t="s">
         <v>21</v>
       </c>
-      <c r="J27" t="s">
-        <v>16</v>
-      </c>
-      <c r="K27" t="s">
-        <v>22</v>
-      </c>
       <c r="L27" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M27" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N27">
         <v>4</v>
@@ -1822,43 +1837,43 @@
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="B28" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C28" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D28" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E28">
         <v>6</v>
       </c>
       <c r="F28" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="G28" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H28" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="I28" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="J28" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K28" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="L28" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M28" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N28">
         <v>5</v>
@@ -1866,40 +1881,43 @@
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="B29" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C29" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D29" t="s">
-        <v>17</v>
+        <v>16</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
       </c>
       <c r="F29" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="G29" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H29" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="I29" t="s">
+        <v>27</v>
+      </c>
+      <c r="J29" t="s">
+        <v>16</v>
+      </c>
+      <c r="K29" t="s">
+        <v>21</v>
+      </c>
+      <c r="L29" t="s">
         <v>28</v>
       </c>
-      <c r="J29" t="s">
-        <v>17</v>
-      </c>
-      <c r="K29" t="s">
-        <v>22</v>
-      </c>
-      <c r="L29" t="s">
-        <v>29</v>
-      </c>
       <c r="M29" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N29">
         <v>4</v>
@@ -1907,54 +1925,60 @@
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="B30" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C30" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D30" t="s">
-        <v>17</v>
+        <v>16</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="B31" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C31" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D31" t="s">
+        <v>16</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31" t="s">
         <v>17</v>
       </c>
-      <c r="F31" t="s">
+      <c r="G31" t="s">
         <v>18</v>
       </c>
-      <c r="G31" t="s">
+      <c r="H31" t="s">
         <v>19</v>
       </c>
-      <c r="H31" t="s">
+      <c r="I31" t="s">
         <v>20</v>
       </c>
-      <c r="I31" t="s">
-        <v>21</v>
-      </c>
       <c r="J31" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K31" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L31" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="M31" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N31">
         <v>4</v>
@@ -1962,57 +1986,60 @@
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="B32" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C32" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D32" t="s">
-        <v>17</v>
+        <v>16</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="B33" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C33" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D33" t="s">
-        <v>16</v>
-      </c>
-      <c r="E33" t="s">
-        <v>94</v>
+        <v>15</v>
+      </c>
+      <c r="E33">
+        <v>1</v>
       </c>
       <c r="F33" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="G33" t="s">
+        <v>18</v>
+      </c>
+      <c r="H33" t="s">
         <v>19</v>
       </c>
-      <c r="H33" t="s">
-        <v>20</v>
-      </c>
       <c r="I33" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J33" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K33" t="s">
+        <v>21</v>
+      </c>
+      <c r="L33" t="s">
         <v>22</v>
       </c>
-      <c r="L33" t="s">
-        <v>23</v>
-      </c>
       <c r="M33" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N33">
         <v>2</v>
@@ -2020,43 +2047,43 @@
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="B34" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C34" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D34" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E34">
         <v>3</v>
       </c>
       <c r="F34" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="G34" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H34" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="I34" t="s">
+        <v>20</v>
+      </c>
+      <c r="J34" t="s">
+        <v>16</v>
+      </c>
+      <c r="K34" t="s">
         <v>21</v>
       </c>
-      <c r="J34" t="s">
-        <v>17</v>
-      </c>
-      <c r="K34" t="s">
-        <v>22</v>
-      </c>
       <c r="L34" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="M34" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N34">
         <v>4</v>
@@ -2064,43 +2091,43 @@
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="B35" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C35" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D35" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E35">
         <v>1</v>
       </c>
       <c r="F35" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G35" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H35" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="I35" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="J35" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K35" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L35" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="M35" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="N35">
         <v>2</v>
@@ -2108,43 +2135,43 @@
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="B36" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C36" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D36" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E36">
         <v>4</v>
       </c>
       <c r="F36" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="G36" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H36" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="I36" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J36" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K36" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="L36" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M36" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N36">
         <v>4</v>
@@ -2152,71 +2179,77 @@
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="B37" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C37" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D37" t="s">
-        <v>17</v>
+        <v>16</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="B38" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C38" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D38" t="s">
-        <v>17</v>
+        <v>16</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="B39" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C39" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D39" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E39">
         <v>2</v>
       </c>
       <c r="F39" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="G39" t="s">
+        <v>18</v>
+      </c>
+      <c r="H39" t="s">
         <v>19</v>
       </c>
-      <c r="H39" t="s">
+      <c r="I39" t="s">
         <v>20</v>
       </c>
-      <c r="I39" t="s">
-        <v>21</v>
-      </c>
       <c r="J39" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K39" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="L39" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="M39" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="N39">
         <v>4</v>
@@ -2224,57 +2257,60 @@
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="B40" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C40" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D40" t="s">
-        <v>17</v>
+        <v>16</v>
+      </c>
+      <c r="E40">
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="B41" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C41" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D41" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E41">
         <v>1</v>
       </c>
       <c r="F41" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G41" t="s">
+        <v>18</v>
+      </c>
+      <c r="H41" t="s">
         <v>19</v>
       </c>
-      <c r="H41" t="s">
-        <v>20</v>
-      </c>
       <c r="I41" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="J41" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K41" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L41" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="M41" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N41">
         <v>4</v>
@@ -2282,43 +2318,43 @@
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="B42" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C42" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D42" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E42">
         <v>2</v>
       </c>
       <c r="F42" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="G42" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H42" t="s">
+        <v>19</v>
+      </c>
+      <c r="I42" t="s">
         <v>20</v>
       </c>
-      <c r="I42" t="s">
-        <v>21</v>
-      </c>
       <c r="J42" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K42" t="s">
+        <v>36</v>
+      </c>
+      <c r="L42" t="s">
         <v>37</v>
       </c>
-      <c r="L42" t="s">
-        <v>38</v>
-      </c>
       <c r="M42" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N42">
         <v>3</v>
@@ -2326,57 +2362,60 @@
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="B43" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C43" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D43" t="s">
-        <v>17</v>
+        <v>16</v>
+      </c>
+      <c r="E43">
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="B44" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C44" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D44" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E44">
         <v>8</v>
       </c>
       <c r="F44" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="G44" t="s">
+        <v>18</v>
+      </c>
+      <c r="H44" t="s">
         <v>19</v>
       </c>
-      <c r="H44" t="s">
-        <v>20</v>
-      </c>
       <c r="I44" t="s">
+        <v>27</v>
+      </c>
+      <c r="J44" t="s">
+        <v>15</v>
+      </c>
+      <c r="K44" t="s">
+        <v>21</v>
+      </c>
+      <c r="L44" t="s">
         <v>28</v>
       </c>
-      <c r="J44" t="s">
-        <v>16</v>
-      </c>
-      <c r="K44" t="s">
-        <v>22</v>
-      </c>
-      <c r="L44" t="s">
-        <v>29</v>
-      </c>
       <c r="M44" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N44">
         <v>5</v>
@@ -2384,43 +2423,43 @@
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="B45" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C45" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D45" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E45">
         <v>1</v>
       </c>
       <c r="F45" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G45" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H45" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I45" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J45" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K45" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L45" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M45" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N45">
         <v>3</v>
@@ -2428,43 +2467,43 @@
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="B46" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C46" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D46" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E46">
         <v>5</v>
       </c>
       <c r="F46" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="G46" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H46" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I46" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="J46" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K46" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L46" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M46" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N46">
         <v>4</v>
@@ -2472,40 +2511,43 @@
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="B47" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C47" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D47" t="s">
-        <v>17</v>
+        <v>16</v>
+      </c>
+      <c r="E47">
+        <v>0</v>
       </c>
       <c r="F47" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="G47" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H47" t="s">
+        <v>19</v>
+      </c>
+      <c r="I47" t="s">
         <v>20</v>
       </c>
-      <c r="I47" t="s">
+      <c r="J47" t="s">
+        <v>15</v>
+      </c>
+      <c r="K47" t="s">
         <v>21</v>
       </c>
-      <c r="J47" t="s">
-        <v>16</v>
-      </c>
-      <c r="K47" t="s">
-        <v>22</v>
-      </c>
       <c r="L47" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="M47" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N47">
         <v>4</v>
@@ -2513,40 +2555,43 @@
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="B48" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C48" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D48" t="s">
+        <v>16</v>
+      </c>
+      <c r="E48">
+        <v>0</v>
+      </c>
+      <c r="F48" t="s">
         <v>17</v>
       </c>
-      <c r="F48" t="s">
+      <c r="G48" t="s">
         <v>18</v>
       </c>
-      <c r="G48" t="s">
+      <c r="H48" t="s">
         <v>19</v>
       </c>
-      <c r="H48" t="s">
-        <v>20</v>
-      </c>
       <c r="I48" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J48" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K48" t="s">
+        <v>21</v>
+      </c>
+      <c r="L48" t="s">
         <v>22</v>
       </c>
-      <c r="L48" t="s">
-        <v>23</v>
-      </c>
       <c r="M48" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N48">
         <v>4</v>
@@ -2554,57 +2599,60 @@
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="B49" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C49" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D49" t="s">
-        <v>17</v>
+        <v>16</v>
+      </c>
+      <c r="E49">
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="B50" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C50" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D50" t="s">
-        <v>16</v>
-      </c>
-      <c r="E50" t="s">
-        <v>124</v>
+        <v>15</v>
+      </c>
+      <c r="E50">
+        <v>5</v>
       </c>
       <c r="F50" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="G50" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H50" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="I50" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J50" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K50" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L50" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="M50" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N50">
         <v>4</v>
@@ -2612,40 +2660,43 @@
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="B51" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C51" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D51" t="s">
-        <v>16</v>
+        <v>15</v>
+      </c>
+      <c r="E51">
+        <v>0</v>
       </c>
       <c r="F51" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G51" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H51" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I51" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J51" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K51" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="L51" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M51" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N51">
         <v>4</v>
@@ -2653,43 +2704,43 @@
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="B52" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C52" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D52" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E52">
         <v>4</v>
       </c>
       <c r="F52" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="G52" t="s">
+        <v>26</v>
+      </c>
+      <c r="H52" t="s">
+        <v>84</v>
+      </c>
+      <c r="I52" t="s">
         <v>27</v>
       </c>
-      <c r="H52" t="s">
-        <v>89</v>
-      </c>
-      <c r="I52" t="s">
+      <c r="J52" t="s">
+        <v>16</v>
+      </c>
+      <c r="K52" t="s">
+        <v>21</v>
+      </c>
+      <c r="L52" t="s">
         <v>28</v>
       </c>
-      <c r="J52" t="s">
-        <v>17</v>
-      </c>
-      <c r="K52" t="s">
-        <v>22</v>
-      </c>
-      <c r="L52" t="s">
-        <v>29</v>
-      </c>
       <c r="M52" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N52">
         <v>2</v>
@@ -2697,46 +2748,50 @@
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="B53" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C53" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D53" t="s">
-        <v>17</v>
+        <v>16</v>
+      </c>
+      <c r="E53">
+        <v>0</v>
       </c>
       <c r="F53" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="G53" t="s">
+        <v>18</v>
+      </c>
+      <c r="H53" t="s">
         <v>19</v>
       </c>
-      <c r="H53" t="s">
+      <c r="I53" t="s">
         <v>20</v>
       </c>
-      <c r="I53" t="s">
-        <v>21</v>
-      </c>
       <c r="J53" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K53" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="L53" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="M53" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N53">
         <v>3</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="E1:E53"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>